--- a/staticfiles/CBSE Syllabus-Class10-Maths&Science.xlsx
+++ b/staticfiles/CBSE Syllabus-Class10-Maths&Science.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Chapter-1 Real Numbers.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=UUpa8t7H1Hg </t>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=UUpa8t7H1Hg</t>
   </si>
   <si>
     <t xml:space="preserve">Unit 2: Algebra</t>
@@ -106,13 +106,13 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=MF8yMAmqaz0</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-9  Applications of Trigonometry</t>
+    <t xml:space="preserve">Chapter-9 Applications of Trigonometry</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=AO4jIcmEKSw</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-10 circles</t>
+    <t xml:space="preserve">Chapter-10 Circles</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=gQfINW2ns1A</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">Chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter- 1 Chemical Reactions</t>
+    <t xml:space="preserve">Chapter-1 Chemical Reactions</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=wIVFqA7RJvY</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=_pZQ3Iwq9-w</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter 5- Periodic classification of elements</t>
+    <t xml:space="preserve">Chapter-5 Periodic classification of elements</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=OIlLIZSSHTA</t>
@@ -238,13 +238,13 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=7xZh2nDWHO0</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter 14 Magnetic effects of electric current</t>
+    <t xml:space="preserve">Chapter-14 Magnetic effects of electric current</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=Y4klyPaFGnM</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter 15 Sources Of Energy</t>
+    <t xml:space="preserve">Chapter-15 Sources Of Energy</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=dk4zyqH8dvM</t>
@@ -382,7 +382,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,10 +401,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -511,10 +507,10 @@
   <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -563,7 +559,7 @@
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -625,7 +621,7 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -642,7 +638,7 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -659,7 +655,7 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -676,7 +672,7 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -693,7 +689,7 @@
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -710,7 +706,7 @@
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -727,7 +723,7 @@
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -744,7 +740,7 @@
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -761,7 +757,7 @@
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -849,7 +845,7 @@
       <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1002,7 +998,7 @@
       <c r="C29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -1114,7 +1110,7 @@
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="8"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
@@ -1126,7 +1122,7 @@
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
@@ -1144,7 +1140,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="8"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
@@ -1174,37 +1170,37 @@
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="9"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="7"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="9"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="9"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="7"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
@@ -1216,506 +1212,534 @@
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="9"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="9"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="9"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="9"/>
+      <c r="D65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="9"/>
+      <c r="D66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="7"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="7"/>
+      <c r="D68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="7"/>
+      <c r="D69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="7"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="7"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="7"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="7"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="7"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="7"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="7"/>
+      <c r="D76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="11"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="10"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10"/>
+      <c r="A93" s="9"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10"/>
+      <c r="A94" s="9"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="10"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="10"/>
+      <c r="A105" s="9"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="10"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10"/>
+      <c r="A111" s="9"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="10"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10"/>
+      <c r="A117" s="9"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10"/>
+      <c r="A121" s="9"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10"/>
+      <c r="A122" s="9"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10"/>
+      <c r="A123" s="9"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10"/>
+      <c r="A124" s="9"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="9"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="10"/>
+      <c r="A125" s="9"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="9"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="8"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10"/>
+      <c r="A126" s="9"/>
       <c r="B126" s="3"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10"/>
+      <c r="A127" s="9"/>
       <c r="B127" s="3"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="9"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="10"/>
+      <c r="A128" s="9"/>
       <c r="B128" s="3"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="9"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="8"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10"/>
+      <c r="A129" s="9"/>
       <c r="B129" s="3"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="9"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="10"/>
+      <c r="A130" s="9"/>
       <c r="B130" s="3"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10"/>
+      <c r="A131" s="9"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10"/>
+      <c r="A132" s="9"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10"/>
+      <c r="A133" s="9"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="9"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="8"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="10"/>
+      <c r="A134" s="9"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="9"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="8"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="10"/>
+      <c r="A135" s="9"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="10"/>
+      <c r="A136" s="9"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="10"/>
+      <c r="A137" s="9"/>
       <c r="B137" s="3"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="10"/>
+      <c r="A138" s="9"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="10"/>
+      <c r="A139" s="9"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="10"/>
+      <c r="A140" s="9"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10"/>
+      <c r="A141" s="9"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10"/>
+      <c r="A142" s="9"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10"/>
+      <c r="A143" s="9"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10"/>
+      <c r="A144" s="9"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D75:D76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://www.youtube.com/watch?v=YmDnGcol-gs"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://www.youtube.com/watch?v=UUpa8t7H1Hg"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://www.youtube.com/watch?v=YmDnGcol-gs"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.youtube.com/watch?v=3MHVrtscYOY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://www.youtube.com/watch?v=VNMqILLTBw0"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://www.youtube.com/watch?v=XGvAsYUI66A"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://www.youtube.com/watch?v=QnqWMIHOcEE"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://www.youtube.com/watch?v=nhWDGcGTgS4"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://www.youtube.com/watch?v=MF8yMAmqaz0"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://www.youtube.com/watch?v=AO4jIcmEKSw"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://www.youtube.com/watch?v=gQfINW2ns1A"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://www.youtube.com/watch?v=-x1ttjU17uk"/>
+    <hyperlink ref="E13" r:id="rId12" display="https://www.youtube.com/watch?v=jcFFwFIonn4"/>
+    <hyperlink ref="E14" r:id="rId13" display="https://www.youtube.com/watch?v=G_JnER6GIz0"/>
+    <hyperlink ref="E15" r:id="rId14" display="https://www.youtube.com/watch?v=-9j9AHERMkE"/>
+    <hyperlink ref="E16" r:id="rId15" display="https://www.youtube.com/watch?v=wIVFqA7RJvY"/>
+    <hyperlink ref="E17" r:id="rId16" display="https://www.youtube.com/watch?v=za1tst48LDc"/>
+    <hyperlink ref="E18" r:id="rId17" display="https://www.youtube.com/watch?v=5yb6JXUgCZM"/>
+    <hyperlink ref="E19" r:id="rId18" display="https://www.youtube.com/watch?v=_pZQ3Iwq9-w"/>
+    <hyperlink ref="E20" r:id="rId19" display="https://www.youtube.com/watch?v=OIlLIZSSHTA"/>
+    <hyperlink ref="E21" r:id="rId20" display="https://www.youtube.com/watch?v=ky_hin2qIto"/>
+    <hyperlink ref="E22" r:id="rId21" display="https://www.youtube.com/watch?v=wGW8hcpIWMc"/>
+    <hyperlink ref="E23" r:id="rId22" display="https://www.youtube.com/watch?v=r8IoV0y4htU"/>
+    <hyperlink ref="E24" r:id="rId23" display="https://www.youtube.com/watch?v=CXZWOhf5r0E"/>
+    <hyperlink ref="E25" r:id="rId24" display="https://www.youtube.com/watch?v=sbVFcjq0Q_Q"/>
+    <hyperlink ref="E26" r:id="rId25" display="https://www.youtube.com/watch?v=Me5ehNcvULw"/>
+    <hyperlink ref="E27" r:id="rId26" display="https://www.youtube.com/watch?v=XAXvtNWcop4"/>
+    <hyperlink ref="E28" r:id="rId27" display="https://www.youtube.com/watch?v=7xZh2nDWHO0"/>
+    <hyperlink ref="E29" r:id="rId28" display="https://www.youtube.com/watch?v=Y4klyPaFGnM"/>
+    <hyperlink ref="E30" r:id="rId29" display="https://www.youtube.com/watch?v=dk4zyqH8dvM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/staticfiles/CBSE Syllabus-Class10-Maths&Science.xlsx
+++ b/staticfiles/CBSE Syllabus-Class10-Maths&Science.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Mathematics</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 1: Number System</t>
+    <t xml:space="preserve">Number System</t>
   </si>
   <si>
     <t xml:space="preserve">Chapter-1 Real Numbers.</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=UUpa8t7H1Hg</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 2: Algebra</t>
+    <t xml:space="preserve">Algebra</t>
   </si>
   <si>
     <t xml:space="preserve">Chapter-2 Polynomials.</t>
@@ -507,7 +507,7 @@
   <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/staticfiles/CBSE Syllabus-Class10-Maths&Science.xlsx
+++ b/staticfiles/CBSE Syllabus-Class10-Maths&Science.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
   <si>
     <t xml:space="preserve">Class name</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Number System</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-1 Real Numbers.</t>
+    <t xml:space="preserve">Real Numbers.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=UUpa8t7H1Hg</t>
@@ -55,94 +55,94 @@
     <t xml:space="preserve">Algebra</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-2 Polynomials.</t>
+    <t xml:space="preserve">Polynomials.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=YmDnGcol-gs</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-3 Pair of Linear Equations in Two Variables.</t>
+    <t xml:space="preserve">Pair of Linear Equations in Two Variables.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=3MHVrtscYOY</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-4 Quadratic Equations.</t>
+    <t xml:space="preserve">Quadratic Equations.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=VNMqILLTBw0</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-5 Arithmetic Progressions.</t>
+    <t xml:space="preserve">Arithmetic Progressions.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=XGvAsYUI66A</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 4: Geometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter-6 Triangles.</t>
+    <t xml:space="preserve">Geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triangles.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=QnqWMIHOcEE</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 3: Coordinate Geometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter-7 Coordinate Geometry.</t>
+    <t xml:space="preserve">Circles</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=nhWDGcGTgS4</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 5: Trigonometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter-8 Introduction to Trigonometry.</t>
+    <t xml:space="preserve">Coordinate Geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinate Geometry.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=MF8yMAmqaz0</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-9 Applications of Trigonometry</t>
+    <t xml:space="preserve">Trigonometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Trigonometry.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=AO4jIcmEKSw</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-10 Circles</t>
+    <t xml:space="preserve">Applications of Trigonometry</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=gQfINW2ns1A</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 6: Mensuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter-11 Areas related to circles</t>
+    <t xml:space="preserve">Mensuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areas related to circles</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=-x1ttjU17uk</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-12 Surface area and volumes</t>
+    <t xml:space="preserve">Surface area and volumes</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=jcFFwFIonn4</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 7: Statistics and Probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter-13 Statistics</t>
+    <t xml:space="preserve">Statistics and Probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=G_JnER6GIz0</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-14 Probability</t>
+    <t xml:space="preserve">Probability</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=-9j9AHERMkE</t>
@@ -154,64 +154,58 @@
     <t xml:space="preserve">Chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-1 Chemical Reactions</t>
+    <t xml:space="preserve">Chemical Reactions</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=wIVFqA7RJvY</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-2 Acids, bases and salts</t>
+    <t xml:space="preserve">Acids, bases and salts</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=za1tst48LDc</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-3 Metals &amp; Non-metals</t>
+    <t xml:space="preserve">Metals &amp; Non-metals</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=5yb6JXUgCZM</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-4 Carbon compounds</t>
+    <t xml:space="preserve">Carbon compounds</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=_pZQ3Iwq9-w</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-5 Periodic classification of elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=OIlLIZSSHTA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Biology</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-6 Life Processes</t>
+    <t xml:space="preserve">Life Processes</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=ky_hin2qIto</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-7 Control and co-ordination in animals and plants</t>
+    <t xml:space="preserve">Control and co-ordination in animals and plants</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=wGW8hcpIWMc</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-8 How do organisms reproduce ?</t>
+    <t xml:space="preserve">How do organisms reproduce ?</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=r8IoV0y4htU</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-9 Heredity and Evolution</t>
+    <t xml:space="preserve">Heredity and Evolution</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=CXZWOhf5r0E</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-10 Our Environment</t>
+    <t xml:space="preserve">Our Environment</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=sbVFcjq0Q_Q</t>
@@ -220,31 +214,31 @@
     <t xml:space="preserve">Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-11 Light</t>
+    <t xml:space="preserve">Light</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=Me5ehNcvULw</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-12 Human Eye</t>
+    <t xml:space="preserve">Human Eye</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=XAXvtNWcop4</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-13 Electricity</t>
+    <t xml:space="preserve">Electricity</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=7xZh2nDWHO0</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-14 Magnetic effects of electric current</t>
+    <t xml:space="preserve">Magnetic effects of electric current</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=Y4klyPaFGnM</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-15 Sources Of Energy</t>
+    <t xml:space="preserve">Sources Of Energy</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=dk4zyqH8dvM</t>
@@ -504,13 +498,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.55"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -639,13 +636,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,13 +653,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>28</v>
@@ -690,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>30</v>
@@ -843,13 +840,13 @@
         <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,7 +857,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>55</v>
@@ -877,7 +874,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>57</v>
@@ -894,7 +891,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>59</v>
@@ -911,7 +908,7 @@
         <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>61</v>
@@ -928,13 +925,13 @@
         <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,7 +942,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>66</v>
@@ -962,7 +959,7 @@
         <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>68</v>
@@ -979,9 +976,9 @@
         <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -996,9 +993,9 @@
         <v>42</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -1006,21 +1003,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
@@ -1104,25 +1090,25 @@
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="7"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
@@ -1134,13 +1120,13 @@
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="7"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
@@ -1164,25 +1150,25 @@
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
@@ -1194,19 +1180,19 @@
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="8"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
@@ -1236,7 +1222,7 @@
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="8"/>
+      <c r="D66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
@@ -1293,10 +1279,10 @@
       <c r="D75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9"/>
@@ -1350,13 +1336,13 @@
       <c r="A85" s="9"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="10"/>
+      <c r="D86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9"/>
@@ -1577,8 +1563,8 @@
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9"/>
@@ -1590,13 +1576,13 @@
       <c r="A125" s="9"/>
       <c r="B125" s="3"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="8"/>
+      <c r="D125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9"/>
       <c r="B126" s="3"/>
       <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
+      <c r="D126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9"/>
@@ -1614,7 +1600,7 @@
       <c r="A129" s="9"/>
       <c r="B129" s="3"/>
       <c r="C129" s="6"/>
-      <c r="D129" s="8"/>
+      <c r="D129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="9"/>
@@ -1632,7 +1618,7 @@
       <c r="A132" s="9"/>
       <c r="B132" s="3"/>
       <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
+      <c r="D132" s="8"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="9"/>
@@ -1644,7 +1630,7 @@
       <c r="A134" s="9"/>
       <c r="B134" s="3"/>
       <c r="C134" s="6"/>
-      <c r="D134" s="8"/>
+      <c r="D134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="9"/>
@@ -1700,15 +1686,9 @@
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D74:D75"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.youtube.com/watch?v=UUpa8t7H1Hg"/>
@@ -1729,17 +1709,16 @@
     <hyperlink ref="E17" r:id="rId16" display="https://www.youtube.com/watch?v=za1tst48LDc"/>
     <hyperlink ref="E18" r:id="rId17" display="https://www.youtube.com/watch?v=5yb6JXUgCZM"/>
     <hyperlink ref="E19" r:id="rId18" display="https://www.youtube.com/watch?v=_pZQ3Iwq9-w"/>
-    <hyperlink ref="E20" r:id="rId19" display="https://www.youtube.com/watch?v=OIlLIZSSHTA"/>
-    <hyperlink ref="E21" r:id="rId20" display="https://www.youtube.com/watch?v=ky_hin2qIto"/>
-    <hyperlink ref="E22" r:id="rId21" display="https://www.youtube.com/watch?v=wGW8hcpIWMc"/>
-    <hyperlink ref="E23" r:id="rId22" display="https://www.youtube.com/watch?v=r8IoV0y4htU"/>
-    <hyperlink ref="E24" r:id="rId23" display="https://www.youtube.com/watch?v=CXZWOhf5r0E"/>
-    <hyperlink ref="E25" r:id="rId24" display="https://www.youtube.com/watch?v=sbVFcjq0Q_Q"/>
-    <hyperlink ref="E26" r:id="rId25" display="https://www.youtube.com/watch?v=Me5ehNcvULw"/>
-    <hyperlink ref="E27" r:id="rId26" display="https://www.youtube.com/watch?v=XAXvtNWcop4"/>
-    <hyperlink ref="E28" r:id="rId27" display="https://www.youtube.com/watch?v=7xZh2nDWHO0"/>
-    <hyperlink ref="E29" r:id="rId28" display="https://www.youtube.com/watch?v=Y4klyPaFGnM"/>
-    <hyperlink ref="E30" r:id="rId29" display="https://www.youtube.com/watch?v=dk4zyqH8dvM"/>
+    <hyperlink ref="E20" r:id="rId19" display="https://www.youtube.com/watch?v=ky_hin2qIto"/>
+    <hyperlink ref="E21" r:id="rId20" display="https://www.youtube.com/watch?v=wGW8hcpIWMc"/>
+    <hyperlink ref="E22" r:id="rId21" display="https://www.youtube.com/watch?v=r8IoV0y4htU"/>
+    <hyperlink ref="E23" r:id="rId22" display="https://www.youtube.com/watch?v=CXZWOhf5r0E"/>
+    <hyperlink ref="E24" r:id="rId23" display="https://www.youtube.com/watch?v=sbVFcjq0Q_Q"/>
+    <hyperlink ref="E25" r:id="rId24" display="https://www.youtube.com/watch?v=Me5ehNcvULw"/>
+    <hyperlink ref="E26" r:id="rId25" display="https://www.youtube.com/watch?v=XAXvtNWcop4"/>
+    <hyperlink ref="E27" r:id="rId26" display="https://www.youtube.com/watch?v=7xZh2nDWHO0"/>
+    <hyperlink ref="E28" r:id="rId27" display="https://www.youtube.com/watch?v=Y4klyPaFGnM"/>
+    <hyperlink ref="E29" r:id="rId28" display="https://www.youtube.com/watch?v=dk4zyqH8dvM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/staticfiles/CBSE Syllabus-Class10-Maths&Science.xlsx
+++ b/staticfiles/CBSE Syllabus-Class10-Maths&Science.xlsx
@@ -43,106 +43,106 @@
     <t xml:space="preserve">Mathematics</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 1: Number System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter-1 Real Numbers.</t>
+    <t xml:space="preserve">Number System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Numbers.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=UUpa8t7H1Hg </t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 2: Algebra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter-2 Polynomials.</t>
+    <t xml:space="preserve">Algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polynomials.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=YmDnGcol-gs</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-3 Pair of Linear Equations in Two Variables.</t>
+    <t xml:space="preserve">Pair of Linear Equations in Two Variables.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=3MHVrtscYOY</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-4 Quadratic Equations.</t>
+    <t xml:space="preserve">Quadratic Equations.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=VNMqILLTBw0</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-5 Arithmetic Progressions.</t>
+    <t xml:space="preserve">Arithmetic Progressions.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=XGvAsYUI66A</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 4: Geometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter-6 Triangles.</t>
+    <t xml:space="preserve">Geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triangles.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=QnqWMIHOcEE</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 3: Coordinate Geometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter-7 Coordinate Geometry.</t>
+    <t xml:space="preserve">Coordinate Geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinate Geometry.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=nhWDGcGTgS4</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 5: Trigonometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter-8 Introduction to Trigonometry.</t>
+    <t xml:space="preserve">Trigonometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Trigonometry.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=MF8yMAmqaz0</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-9  Applications of Trigonometry</t>
+    <t xml:space="preserve">Applications of Trigonometry</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=AO4jIcmEKSw</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-10 circles</t>
+    <t xml:space="preserve">Circles</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=gQfINW2ns1A</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 6: Mensuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter-11 Areas related to circles</t>
+    <t xml:space="preserve">Mensuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areas related to circles</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=-x1ttjU17uk</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-12 Surface area and volumes</t>
+    <t xml:space="preserve">Surface area and volumes</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=jcFFwFIonn4</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit 7: Statistics and Probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapter-13 Statistics</t>
+    <t xml:space="preserve">Statistics and Probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=G_JnER6GIz0</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-14 Probability</t>
+    <t xml:space="preserve">Probability</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=-9j9AHERMkE</t>
@@ -154,31 +154,31 @@
     <t xml:space="preserve">Chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter- 1 Chemical Reactions</t>
+    <t xml:space="preserve">Chemical Reactions</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=wIVFqA7RJvY</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-2 Acids, bases and salts</t>
+    <t xml:space="preserve">Acids, bases and salts</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=za1tst48LDc</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-3 Metals &amp; Non-metals</t>
+    <t xml:space="preserve">Metals &amp; Non-metals</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=5yb6JXUgCZM</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-4 Carbon compounds</t>
+    <t xml:space="preserve">Carbon compounds</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=_pZQ3Iwq9-w</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter 5- Periodic classification of elements</t>
+    <t xml:space="preserve">Periodic classification of elements</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=OIlLIZSSHTA</t>
@@ -187,31 +187,31 @@
     <t xml:space="preserve">Biology</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-6 Life Processes</t>
+    <t xml:space="preserve">Life Processes</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=ky_hin2qIto</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-7 Control and co-ordination in animals and plants</t>
+    <t xml:space="preserve">Control and co-ordination in animals and plants</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=wGW8hcpIWMc</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-8 How do organisms reproduce ?</t>
+    <t xml:space="preserve">How do organisms reproduce ?</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=r8IoV0y4htU</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-9 Heredity and Evolution</t>
+    <t xml:space="preserve">Heredity and Evolution</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=CXZWOhf5r0E</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-10 Our Environment</t>
+    <t xml:space="preserve">Our Environment</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=sbVFcjq0Q_Q</t>
@@ -220,31 +220,31 @@
     <t xml:space="preserve">Physics</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-11 Light</t>
+    <t xml:space="preserve">Light</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=Me5ehNcvULw</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-12 Human Eye</t>
+    <t xml:space="preserve">Human Eye</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=XAXvtNWcop4</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter-13 Electricity</t>
+    <t xml:space="preserve">Electricity</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=7xZh2nDWHO0</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter 14 Magnetic effects of electric current</t>
+    <t xml:space="preserve">Magnetic effects of electric current</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=Y4klyPaFGnM</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapter 15 Sources Of Energy</t>
+    <t xml:space="preserve">Sources Of Energy</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch?v=dk4zyqH8dvM</t>
@@ -511,7 +511,7 @@
   <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
